--- a/19.景科RK3588/附件一：RK3588接口需求.xlsx
+++ b/19.景科RK3588/附件一：RK3588接口需求.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hardware\个人项目\2023\05.景科RK3588\SPEC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\Haitutech\19.景科RK3588\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73A7EF1-4245-46C2-9BC7-E359D2215107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62E2EDE-2146-4E04-A5E6-29D56697C3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="257">
   <si>
     <t>模块</t>
   </si>
@@ -271,9 +271,6 @@
   </si>
   <si>
     <t>防静电、防雷击、抗扰</t>
-  </si>
-  <si>
-    <t>HR911130C需要更高EMC防护</t>
   </si>
   <si>
     <t>串口</t>
@@ -947,10 +944,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4P端子的定义也按照开发板？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">HEADER 19P黑色座https://m.tb.cn/h.Ug9ywIh?tk=nmGpdYopTP5 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -960,6 +953,18 @@
   </si>
   <si>
     <t>TYPE A卧式USB2.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR911130C需要更高EMC防护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是232的形式？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用交换机是否可以</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1020,7 +1025,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1048,6 +1053,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,9 +1169,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1188,6 +1202,21 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1197,20 +1226,26 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1422,16 +1457,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>512379</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>78826</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>845754</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>69301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>361970</xdr:colOff>
-      <xdr:row>127</xdr:row>
-      <xdr:rowOff>38448</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>638195</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>28923</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1454,8 +1489,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11200086" y="29849378"/>
-          <a:ext cx="4616559" cy="9924743"/>
+          <a:off x="12361479" y="25053376"/>
+          <a:ext cx="4650191" cy="9817997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,175 +1839,175 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="34.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.75" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="29" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
       <c r="I1" s="5"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="22"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="22"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>237</v>
-      </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="27"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="22"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="22"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
+      <c r="D6" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="22"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="27"/>
+    <row r="8" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="D8" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="27"/>
+    <row r="9" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="22"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>3</v>
       </c>
@@ -1998,104 +2033,104 @@
         <v>21</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="97.2" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.15">
+      <c r="A11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="D11" s="17">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="G11" s="16" t="s">
+      <c r="F11" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="16" t="s">
+      <c r="I11" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A12" s="22"/>
+      <c r="B12" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="16" t="s">
+      <c r="I12" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="22"/>
+      <c r="B13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>3</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="H13" s="15"/>
+      <c r="I13" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="J13" s="15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A14" s="22"/>
       <c r="B14" s="8" t="s">
         <v>23</v>
       </c>
@@ -2116,302 +2151,302 @@
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="22"/>
+      <c r="B15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="16">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J15" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="A16" s="22"/>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="16">
+        <v>6</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="22"/>
+      <c r="B17" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="16">
+        <v>7</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A18" s="22"/>
+      <c r="B18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="16">
+        <v>8</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A19" s="22"/>
+      <c r="B19" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="31">
+        <v>9</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J19" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="22"/>
+      <c r="B20" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="31">
+        <v>10</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="22"/>
+      <c r="B21" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="31">
+        <v>11</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" s="33" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="17">
-        <v>5</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="17">
-        <v>6</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="19" t="s">
+    <row r="22" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="22"/>
+      <c r="B22" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="31">
+        <v>12</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="J16" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="17">
-        <v>7</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="19" t="s">
+      <c r="J22" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="22"/>
+      <c r="B23" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="31">
+        <v>13</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="I23" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="17">
-        <v>8</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="9">
-        <v>9</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11" t="s">
+      <c r="J23" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A24" s="22"/>
+      <c r="B24" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="31">
+        <v>14</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="9">
-        <v>10</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="9">
-        <v>11</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="9">
-        <v>12</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="9">
-        <v>13</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="4">
-        <v>14</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="J24" s="6" t="s">
+      <c r="J24" s="30" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="A25" s="22"/>
       <c r="B25" s="6" t="s">
         <v>27</v>
       </c>
@@ -2430,1125 +2465,1139 @@
       <c r="G25" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="11" t="s">
         <v>69</v>
       </c>
       <c r="I25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="A26" s="22"/>
+      <c r="B26" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="35">
+        <v>16</v>
+      </c>
+      <c r="E26" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34" t="s">
         <v>216</v>
       </c>
-      <c r="J25" s="6" t="s">
+      <c r="J26" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="A27" s="22"/>
+      <c r="B27" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" s="9">
-        <v>16</v>
-      </c>
-      <c r="E26" s="8" t="s">
+      <c r="D27" s="20">
+        <v>17</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="G27" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8" t="s">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="20">
+        <v>18</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J26" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="6" t="s">
+      <c r="J28" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="4">
-        <v>17</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="4">
-        <v>18</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
+      <c r="C29" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="20">
+        <v>20</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="4">
-        <v>20</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="J29" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="J29" s="6" t="s">
+    </row>
+    <row r="30" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="22"/>
+      <c r="B30" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="9">
+        <v>21</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D30" s="4">
-        <v>21</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="G30" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="H30" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="6" t="s">
+      <c r="I30" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I30" s="6" t="s">
+    </row>
+    <row r="31" spans="1:11" ht="45" x14ac:dyDescent="0.15">
+      <c r="A31" s="22"/>
+      <c r="B31" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="4">
+        <v>23</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="J30" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="4">
-        <v>23</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" s="6" t="s">
+      <c r="J31" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="J31" s="6" t="s">
+    </row>
+    <row r="32" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="22"/>
+      <c r="B32" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="6" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="D32" s="4">
         <v>24</v>
       </c>
       <c r="E32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F32" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J32" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="J32" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="110.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
+    </row>
+    <row r="33" spans="1:11" ht="110.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="22"/>
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="4">
         <v>25</v>
       </c>
       <c r="E33" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="J33" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J33" s="6" t="s">
+    </row>
+    <row r="34" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="22"/>
+      <c r="B34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="4">
         <v>26</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A35" s="22"/>
+      <c r="B35" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="75.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="D35" s="4">
         <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="G35" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="H35" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="6" t="s">
+      <c r="I35" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A36" s="22"/>
+      <c r="B36" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="D36" s="20">
+        <v>28</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D36" s="21">
-        <v>28</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="F36" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="J36" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20" t="s">
+    </row>
+    <row r="37" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="22"/>
+      <c r="B37" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" s="20">
+        <v>29</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="J36" s="20" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D37" s="21">
-        <v>29</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="F37" s="20" t="s">
+      <c r="J37" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J37" s="20" t="s">
+    </row>
+    <row r="38" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="22"/>
+      <c r="B38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>129</v>
       </c>
       <c r="D38" s="4">
         <v>30</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>131</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A39" s="22"/>
+      <c r="B39" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" s="20">
+        <v>31</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J38" s="6" t="s">
+      <c r="J39" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="K39" s="12"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A40" s="22"/>
+      <c r="B40" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="20" t="s">
+      <c r="D40" s="20">
+        <v>32</v>
+      </c>
+      <c r="E40" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D39" s="21">
-        <v>31</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="F40" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F39" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20" t="s">
+      <c r="G40" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="J40" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A41" s="22"/>
+      <c r="B41" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" s="20">
+        <v>33</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="J39" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="21">
-        <v>32</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="J40" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="21">
-        <v>33</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G41" s="20" t="s">
+      <c r="J41" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="J41" s="20" t="s">
+    </row>
+    <row r="42" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A42" s="22"/>
+      <c r="B42" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="54" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>141</v>
       </c>
       <c r="D42" s="9">
         <v>34</v>
       </c>
       <c r="E42" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="F42" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>144</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="10" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="118.8" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="112.5" x14ac:dyDescent="0.15">
+      <c r="A43" s="22"/>
+      <c r="B43" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="9">
+        <v>35</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="D43" s="4">
-        <v>35</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="F43" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="G43" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G43" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="H43" s="6" t="s">
+      <c r="I43" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J43" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="I43" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="64.8" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+    </row>
+    <row r="44" spans="1:11" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="22"/>
       <c r="B44" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D44" s="4">
         <v>36</v>
       </c>
       <c r="E44" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="H44" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="H44" s="6" t="s">
+      <c r="I44" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J44" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="I44" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="J44" s="6" t="s">
+    </row>
+    <row r="45" spans="1:11" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A45" s="22"/>
+      <c r="B45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>156</v>
       </c>
       <c r="D45" s="4">
         <v>37</v>
       </c>
       <c r="E45" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A46" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="14"/>
+      <c r="I46" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J46" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A47" s="25"/>
+      <c r="B47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2</v>
+      </c>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A48" s="25"/>
+      <c r="B48" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" s="13">
+        <v>3</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A49" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J49" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A50" s="25"/>
+      <c r="B50" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D50" s="13">
+        <v>2</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A51" s="25"/>
+      <c r="B51" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D51" s="13">
+        <v>3</v>
+      </c>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A52" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A53" s="25"/>
+      <c r="B53" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" s="13">
+        <v>2</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="14"/>
+      <c r="I53" s="28"/>
+      <c r="J53" s="28"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A54" s="25"/>
+      <c r="B54" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D54" s="13">
+        <v>3</v>
+      </c>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
+    </row>
+    <row r="55" spans="1:10" ht="45" x14ac:dyDescent="0.15">
+      <c r="A55" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="H55" s="14"/>
+      <c r="I55" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J55" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A56" s="25"/>
+      <c r="B56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="13">
+        <v>2</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A57" s="25"/>
+      <c r="B57" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D57" s="13">
+        <v>3</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+    </row>
+    <row r="58" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A58" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D58" s="13">
+        <v>1</v>
+      </c>
+      <c r="E58" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G58" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H58" s="14"/>
+      <c r="I58" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J58" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A59" s="25"/>
+      <c r="B59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="13">
+        <v>2</v>
+      </c>
+      <c r="E59" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G59" s="14"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="28"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A60" s="25"/>
+      <c r="B60" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60" s="13">
+        <v>3</v>
+      </c>
+      <c r="E60" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+    </row>
+    <row r="61" spans="1:10" ht="33.75" x14ac:dyDescent="0.15">
+      <c r="A61" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="H61" s="14"/>
+      <c r="I61" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="J61" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A62" s="25"/>
+      <c r="B62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" s="13">
+        <v>2</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="14"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="28"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A63" s="25"/>
+      <c r="B63" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="13">
+        <v>3</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A64" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1</v>
+      </c>
+      <c r="E64" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I64" s="27" t="s">
         <v>232</v>
       </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="26" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D46" s="14">
-        <v>1</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J46" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="26"/>
-      <c r="B47" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D47" s="14">
+      <c r="J64" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A65" s="25"/>
+      <c r="B65" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D65" s="13">
         <v>2</v>
       </c>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G47" s="26"/>
-      <c r="H47" s="15"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D48" s="14">
+      <c r="E65" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
+      <c r="J65" s="28"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A66" s="25"/>
+      <c r="B66" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D66" s="13">
         <v>3</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G48" s="26"/>
-      <c r="H48" s="15"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D49" s="14">
-        <v>1</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J49" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="26"/>
-      <c r="B50" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="14">
-        <v>2</v>
-      </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="15"/>
-      <c r="H50" s="15"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="26"/>
-      <c r="B51" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D51" s="14">
-        <v>3</v>
-      </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G51" s="15"/>
-      <c r="H51" s="15"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="25"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="14">
-        <v>1</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="G52" s="15"/>
-      <c r="H52" s="15"/>
-      <c r="I52" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="J52" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="14">
-        <v>2</v>
-      </c>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="26"/>
-      <c r="B54" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D54" s="14">
-        <v>3</v>
-      </c>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="25"/>
-    </row>
-    <row r="55" spans="1:10" ht="54" x14ac:dyDescent="0.25">
-      <c r="A55" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B55" s="15" t="s">
+      <c r="E66" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="28"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A67" s="25"/>
+      <c r="B67" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="14">
-        <v>1</v>
-      </c>
-      <c r="E55" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="H55" s="15"/>
-      <c r="I55" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J55" s="23" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D56" s="14">
-        <v>2</v>
-      </c>
-      <c r="E56" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-    </row>
-    <row r="57" spans="1:10" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D57" s="14">
-        <v>3</v>
-      </c>
-      <c r="E57" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="25"/>
-    </row>
-    <row r="58" spans="1:10" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A58" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D58" s="14">
-        <v>1</v>
-      </c>
-      <c r="E58" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A59" s="26"/>
-      <c r="B59" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D59" s="14">
-        <v>2</v>
-      </c>
-      <c r="E59" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="15"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="26"/>
-      <c r="B60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D60" s="14">
-        <v>3</v>
-      </c>
-      <c r="E60" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="25"/>
-    </row>
-    <row r="61" spans="1:10" ht="32.4" x14ac:dyDescent="0.25">
-      <c r="A61" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="14">
-        <v>1</v>
-      </c>
-      <c r="E61" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="J61" s="23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="21.6" x14ac:dyDescent="0.25">
-      <c r="A62" s="26"/>
-      <c r="B62" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="D62" s="14">
-        <v>2</v>
-      </c>
-      <c r="E62" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="G62" s="15"/>
-      <c r="H62" s="15"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="14">
-        <v>3</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="15"/>
-      <c r="H63" s="15"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="25"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="26" t="s">
+      <c r="C67" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="13">
+        <v>4</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="B64" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="14">
-        <v>1</v>
-      </c>
-      <c r="E64" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F64" s="15" t="s">
+      <c r="F67" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="G64" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I64" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="J64" s="23" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="26"/>
-      <c r="B65" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="14">
-        <v>2</v>
-      </c>
-      <c r="E65" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="26"/>
-      <c r="B66" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D66" s="14">
-        <v>3</v>
-      </c>
-      <c r="E66" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F66" s="15" t="s">
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="28"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A68" s="25"/>
+      <c r="B68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="26"/>
-      <c r="B67" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D67" s="14">
-        <v>4</v>
-      </c>
-      <c r="E67" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="D68" s="13">
+        <v>5</v>
+      </c>
+      <c r="E68" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="14">
-        <v>5</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>194</v>
-      </c>
-      <c r="G68" s="25"/>
-      <c r="H68" s="25"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="25"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="J46:J48"/>
+    <mergeCell ref="J49:J51"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I52:I54"/>
+    <mergeCell ref="I49:I51"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="J64:J68"/>
+    <mergeCell ref="I64:I68"/>
+    <mergeCell ref="H64:H68"/>
+    <mergeCell ref="G64:G68"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J58:J60"/>
+    <mergeCell ref="J61:J63"/>
     <mergeCell ref="A58:A60"/>
     <mergeCell ref="A61:A63"/>
     <mergeCell ref="A64:A68"/>
@@ -3565,22 +3614,11 @@
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="D8:I8"/>
-    <mergeCell ref="J64:J68"/>
-    <mergeCell ref="I64:I68"/>
-    <mergeCell ref="H64:H68"/>
-    <mergeCell ref="G64:G68"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J58:J60"/>
-    <mergeCell ref="J61:J63"/>
-    <mergeCell ref="J46:J48"/>
-    <mergeCell ref="J49:J51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I52:I54"/>
-    <mergeCell ref="I49:I51"/>
-    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="D4:I4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70069444444444495" right="0.70069444444444495" top="0.75138888888888899" bottom="0.75138888888888899" header="0.29861111111111099" footer="0.29861111111111099"/>
